--- a/company/reports/llb_600519.xlsx
+++ b/company/reports/llb_600519.xlsx
@@ -561,58 +561,58 @@
       <c r="A4" t="str">
         <v>销售商品、提供劳务收到的现金（元）</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4">
         <v>84268695732.62</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <v>64421479343.02</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4">
         <v>61012964102.54</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4">
         <v>37083071835.58</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4">
         <v>33384835714.04</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4">
         <v>33233870603.65</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4">
         <v>28912367684.82</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4">
         <v>23659131281.08</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4">
         <v>14938581885.61</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4">
         <v>11756243820.83</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4">
         <v>11275230701.85</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M4">
         <v>7437754281.34</v>
       </c>
-      <c r="N4" t="str">
+      <c r="N4">
         <v>6140872490.1</v>
       </c>
-      <c r="O4" t="str">
+      <c r="O4">
         <v>4976668595.34</v>
       </c>
-      <c r="P4" t="str">
+      <c r="P4">
         <v>3646470061.61</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="Q4">
         <v>3057788375.35</v>
       </c>
-      <c r="R4" t="str">
+      <c r="R4">
         <v>2288635492.04</v>
       </c>
-      <c r="S4" t="str">
+      <c r="S4">
         <v>1800399443.09</v>
       </c>
     </row>
@@ -620,58 +620,58 @@
       <c r="A5" t="str">
         <v>收到的税费返还</v>
       </c>
-      <c r="B5" t="str">
-        <v/>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v>0</v>
-      </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <v>0</v>
-      </c>
-      <c r="J5" t="str">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>181031.15</v>
       </c>
-      <c r="K5" t="str">
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <v>0</v>
-      </c>
-      <c r="O5" t="str">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>50557133.43</v>
       </c>
-      <c r="P5" t="str">
+      <c r="P5">
         <v>123262072.51</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q5">
         <v>81417405.4</v>
       </c>
-      <c r="R5" t="str">
+      <c r="R5">
         <v>7215268.89</v>
       </c>
-      <c r="S5" t="str">
+      <c r="S5">
         <v>1846053.69</v>
       </c>
     </row>
@@ -679,58 +679,58 @@
       <c r="A6" t="str">
         <v>收到其他与经营活动有关的现金</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6">
         <v>621558368.29</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <v>542162210.47</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6">
         <v>189142723.95</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6">
         <v>153647241.24</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6">
         <v>2103013963.42</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6">
         <v>3479254399.37</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6">
         <v>387671188.51</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6">
         <v>181674213.04</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6">
         <v>138196684.26</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6">
         <v>185888008.21</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6">
         <v>242355759.12</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M6">
         <v>95684682.11</v>
       </c>
-      <c r="N6" t="str">
+      <c r="N6">
         <v>41497583.01</v>
       </c>
-      <c r="O6" t="str">
+      <c r="O6">
         <v>16087755.58</v>
       </c>
-      <c r="P6" t="str">
+      <c r="P6">
         <v>47576179.27</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="Q6">
         <v>44909156.74</v>
       </c>
-      <c r="R6" t="str">
+      <c r="R6">
         <v>32433164.17</v>
       </c>
-      <c r="S6" t="str">
+      <c r="S6">
         <v>44381149.12</v>
       </c>
     </row>
@@ -738,58 +738,58 @@
       <c r="A7" t="str">
         <v>经营活动现金流入小计</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7">
         <v>89345635398.7</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <v>67369462511.81</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7">
         <v>67279145637.93</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7">
         <v>40013906850.05</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7">
         <v>35487849677.46</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7">
         <v>36713125003.02</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7">
         <v>29300038873.33</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7">
         <v>23840805494.12</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J7">
         <v>15076959601.02</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7">
         <v>11942131829.04</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7">
         <v>11517586460.97</v>
       </c>
-      <c r="M7" t="str">
+      <c r="M7">
         <v>7533438963.45</v>
       </c>
-      <c r="N7" t="str">
+      <c r="N7">
         <v>6182370073.11</v>
       </c>
-      <c r="O7" t="str">
+      <c r="O7">
         <v>5043313484.35</v>
       </c>
-      <c r="P7" t="str">
+      <c r="P7">
         <v>3817308313.39</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="Q7">
         <v>3184114937.49</v>
       </c>
-      <c r="R7" t="str">
+      <c r="R7">
         <v>2328283925.1</v>
       </c>
-      <c r="S7" t="str">
+      <c r="S7">
         <v>1846626645.9</v>
       </c>
     </row>
@@ -797,58 +797,58 @@
       <c r="A8" t="str">
         <v>购买商品、接受劳务支付的现金</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8">
         <v>5298518032.55</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8">
         <v>4875768504.16</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8">
         <v>2773020403.27</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8">
         <v>2967732630.37</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8">
         <v>2838028404.97</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8">
         <v>3152308925.47</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8">
         <v>2707393653.33</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8">
         <v>2353687717.48</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J8">
         <v>1669804222.04</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8">
         <v>1557075938.7</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8">
         <v>1214717814.83</v>
       </c>
-      <c r="M8" t="str">
+      <c r="M8">
         <v>1098306968.33</v>
       </c>
-      <c r="N8" t="str">
+      <c r="N8">
         <v>804488570.85</v>
       </c>
-      <c r="O8" t="str">
+      <c r="O8">
         <v>950764775.72</v>
       </c>
-      <c r="P8" t="str">
+      <c r="P8">
         <v>864365999.46</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="Q8">
         <v>638529865.4</v>
       </c>
-      <c r="R8" t="str">
+      <c r="R8">
         <v>623577741.02</v>
       </c>
-      <c r="S8" t="str">
+      <c r="S8">
         <v>594708128.39</v>
       </c>
     </row>
@@ -856,58 +856,58 @@
       <c r="A9" t="str">
         <v>支付给职工以及为职工支付的现金</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9">
         <v>6653137733.66</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
         <v>5489606122.48</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9">
         <v>4674154236.66</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9">
         <v>4536877341.1</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9">
         <v>3393609756.87</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9">
         <v>3135608084.79</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9">
         <v>2953919072.54</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9">
         <v>1925571991.79</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9">
         <v>1492813443.35</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9">
         <v>1229305038.48</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9">
         <v>809386845.15</v>
       </c>
-      <c r="M9" t="str">
+      <c r="M9">
         <v>623333896.62</v>
       </c>
-      <c r="N9" t="str">
+      <c r="N9">
         <v>403859477.3</v>
       </c>
-      <c r="O9" t="str">
+      <c r="O9">
         <v>250797895.85</v>
       </c>
-      <c r="P9" t="str">
+      <c r="P9">
         <v>159838716.74</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="Q9">
         <v>205782831.25</v>
       </c>
-      <c r="R9" t="str">
+      <c r="R9">
         <v>106684520.62</v>
       </c>
-      <c r="S9" t="str">
+      <c r="S9">
         <v>93314750.84</v>
       </c>
     </row>
@@ -915,58 +915,58 @@
       <c r="A10" t="str">
         <v>支付的各项税费</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10">
         <v>32032178125.92</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
         <v>23065648503.05</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10">
         <v>17510516331.2</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10">
         <v>14003048933.21</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10">
         <v>14496450812.41</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10">
         <v>12533350979.21</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H10">
         <v>10170840319.22</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10">
         <v>8286279154.84</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10">
         <v>4885737303.37</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10">
         <v>4160350102.49</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10">
         <v>3666868792.1</v>
       </c>
-      <c r="M10" t="str">
+      <c r="M10">
         <v>3602532438.23</v>
       </c>
-      <c r="N10" t="str">
+      <c r="N10">
         <v>2387944330.87</v>
       </c>
-      <c r="O10" t="str">
+      <c r="O10">
         <v>1600737072.95</v>
       </c>
-      <c r="P10" t="str">
+      <c r="P10">
         <v>1298348904.97</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="Q10">
         <v>985931576.96</v>
       </c>
-      <c r="R10" t="str">
+      <c r="R10">
         <v>753570901.89</v>
       </c>
-      <c r="S10" t="str">
+      <c r="S10">
         <v>702151217.79</v>
       </c>
     </row>
@@ -974,58 +974,58 @@
       <c r="A11" t="str">
         <v>支付其他与经营活动有关的现金</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11">
         <v>2935766833.07</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11">
         <v>2940296363.54</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11">
         <v>2371486776.88</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11">
         <v>1867442431.65</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11">
         <v>2127238266.61</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11">
         <v>5236832151.63</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H11">
         <v>1546575218.99</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11">
         <v>1126701940.48</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J11">
         <v>827128112.69</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11">
         <v>771463605.18</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11">
         <v>579124473.15</v>
       </c>
-      <c r="M11" t="str">
+      <c r="M11">
         <v>465962448.89</v>
       </c>
-      <c r="N11" t="str">
+      <c r="N11">
         <v>480906660.4</v>
       </c>
-      <c r="O11" t="str">
+      <c r="O11">
         <v>547306251.51</v>
       </c>
-      <c r="P11" t="str">
+      <c r="P11">
         <v>518970212.02</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="Q11">
         <v>412164421.8</v>
       </c>
-      <c r="R11" t="str">
+      <c r="R11">
         <v>409868382.91</v>
       </c>
-      <c r="S11" t="str">
+      <c r="S11">
         <v>414169511.53</v>
       </c>
     </row>
@@ -1033,58 +1033,58 @@
       <c r="A12" t="str">
         <v>经营活动现金流出小计</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12">
         <v>47960400991.98</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12">
         <v>45216426427.68</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12">
         <v>29827895990.88</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12">
         <v>22577566708.33</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12">
         <v>22855327240.86</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12">
         <v>24058100141.1</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12">
         <v>17378728264.08</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12">
         <v>13692240804.59</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12">
         <v>8875483081.45</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12">
         <v>7718194684.85</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12">
         <v>6270097925.23</v>
       </c>
-      <c r="M12" t="str">
+      <c r="M12">
         <v>5790135752.07</v>
       </c>
-      <c r="N12" t="str">
+      <c r="N12">
         <v>4077199039.42</v>
       </c>
-      <c r="O12" t="str">
+      <c r="O12">
         <v>3349605996.03</v>
       </c>
-      <c r="P12" t="str">
+      <c r="P12">
         <v>2841523833.19</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="Q12">
         <v>2242408695.41</v>
       </c>
-      <c r="R12" t="str">
+      <c r="R12">
         <v>1893701546.44</v>
       </c>
-      <c r="S12" t="str">
+      <c r="S12">
         <v>1804343608.55</v>
       </c>
     </row>
@@ -1092,58 +1092,58 @@
       <c r="A13" t="str">
         <v>经营活动产生的现金流量净额</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13">
         <v>41385234406.72</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13">
         <v>22153036084.13</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13">
         <v>37451249647.05</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13">
         <v>17436340141.72</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13">
         <v>12632522436.6</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13">
         <v>12655024861.92</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H13">
         <v>11921310609.25</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13">
         <v>10148564689.53</v>
       </c>
-      <c r="J13" t="str">
+      <c r="J13">
         <v>6201476519.57</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13">
         <v>4223937144.19</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13">
         <v>5247488535.74</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M13">
         <v>1743303211.38</v>
       </c>
-      <c r="N13" t="str">
+      <c r="N13">
         <v>2105171033.69</v>
       </c>
-      <c r="O13" t="str">
+      <c r="O13">
         <v>1693707488.32</v>
       </c>
-      <c r="P13" t="str">
+      <c r="P13">
         <v>975784480.2</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="Q13">
         <v>941706242.08</v>
       </c>
-      <c r="R13" t="str">
+      <c r="R13">
         <v>434582378.66</v>
       </c>
-      <c r="S13" t="str">
+      <c r="S13">
         <v>42283037.35</v>
       </c>
     </row>
@@ -1210,58 +1210,58 @@
       <c r="A15" t="str">
         <v>收回投资收到的现金</v>
       </c>
-      <c r="B15" t="str">
-        <v/>
-      </c>
-      <c r="C15" t="str">
-        <v/>
-      </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-      <c r="E15" t="str">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>60050000</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15">
         <v>5000000</v>
       </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
-      <c r="H15" t="str">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>10000000</v>
       </c>
-      <c r="I15" t="str">
-        <v/>
-      </c>
-      <c r="J15" t="str">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>17000000</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15">
         <v>25000000</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L15">
         <v>21000000</v>
       </c>
-      <c r="M15" t="str">
-        <v/>
-      </c>
-      <c r="N15" t="str">
-        <v/>
-      </c>
-      <c r="O15" t="str">
-        <v/>
-      </c>
-      <c r="P15" t="str">
-        <v/>
-      </c>
-      <c r="Q15" t="str">
-        <v>0</v>
-      </c>
-      <c r="R15" t="str">
-        <v/>
-      </c>
-      <c r="S15" t="str">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>0</v>
       </c>
     </row>
@@ -1269,58 +1269,58 @@
       <c r="A16" t="str">
         <v>取得投资收益收到的现金</v>
       </c>
-      <c r="B16" t="str">
-        <v/>
-      </c>
-      <c r="C16" t="str">
-        <v/>
-      </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-      <c r="E16" t="str">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>3869172.05</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16">
         <v>3095265.75</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16">
         <v>3010000</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H16">
         <v>4129000</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16">
         <v>3010000</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J16">
         <v>1731400</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16">
         <v>2080397.26</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L16">
         <v>2123100</v>
       </c>
-      <c r="M16" t="str">
-        <v/>
-      </c>
-      <c r="N16" t="str">
-        <v/>
-      </c>
-      <c r="O16" t="str">
-        <v/>
-      </c>
-      <c r="P16" t="str">
-        <v/>
-      </c>
-      <c r="Q16" t="str">
-        <v/>
-      </c>
-      <c r="R16" t="str">
-        <v>0</v>
-      </c>
-      <c r="S16" t="str">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>0</v>
       </c>
     </row>
@@ -1328,58 +1328,58 @@
       <c r="A17" t="str">
         <v>处置固定资产、无形资产和其他长期资产收回的现金净额</v>
       </c>
-      <c r="B17" t="str">
-        <v/>
-      </c>
-      <c r="C17" t="str">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>16450</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17">
         <v>92084.5</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17">
         <v>8772937.39</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17">
         <v>10226939.39</v>
       </c>
-      <c r="G17" t="str">
-        <v/>
-      </c>
-      <c r="H17" t="str">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>79000</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17">
         <v>41600</v>
       </c>
-      <c r="J17" t="str">
-        <v/>
-      </c>
-      <c r="K17" t="str">
-        <v/>
-      </c>
-      <c r="L17" t="str">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>50000</v>
       </c>
-      <c r="M17" t="str">
-        <v/>
-      </c>
-      <c r="N17" t="str">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>5950</v>
       </c>
-      <c r="O17" t="str">
-        <v/>
-      </c>
-      <c r="P17" t="str">
-        <v/>
-      </c>
-      <c r="Q17" t="str">
-        <v>0</v>
-      </c>
-      <c r="R17" t="str">
-        <v/>
-      </c>
-      <c r="S17" t="str">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>0</v>
       </c>
     </row>
@@ -1387,117 +1387,117 @@
       <c r="A18" t="str">
         <v>处置子公司及其他营业单位收到的现金净额</v>
       </c>
-      <c r="B18" t="str">
-        <v/>
-      </c>
-      <c r="C18" t="str">
-        <v/>
-      </c>
-      <c r="D18" t="str">
-        <v/>
-      </c>
-      <c r="E18" t="str">
-        <v/>
-      </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <v/>
-      </c>
-      <c r="J18" t="str">
-        <v/>
-      </c>
-      <c r="K18" t="str">
-        <v/>
-      </c>
-      <c r="L18" t="str">
-        <v/>
-      </c>
-      <c r="M18" t="str">
-        <v/>
-      </c>
-      <c r="N18" t="str">
-        <v/>
-      </c>
-      <c r="O18" t="str">
-        <v/>
-      </c>
-      <c r="P18" t="str">
-        <v/>
-      </c>
-      <c r="Q18" t="str">
-        <v/>
-      </c>
-      <c r="R18" t="str">
-        <v/>
-      </c>
-      <c r="S18" t="str">
-        <v/>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <v>收到其他与投资活动有关的现金</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19">
         <v>11244181.3</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19">
         <v>21430672.95</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19">
         <v>5562351.19</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19">
         <v>33357886.05</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19">
         <v>106726852</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19">
         <v>756386234.64</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H19">
         <v>340299568</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19">
         <v>212533826.84</v>
       </c>
-      <c r="J19" t="str">
+      <c r="J19">
         <v>56315726.51</v>
       </c>
-      <c r="K19" t="str">
-        <v/>
-      </c>
-      <c r="L19" t="str">
-        <v/>
-      </c>
-      <c r="M19" t="str">
-        <v/>
-      </c>
-      <c r="N19" t="str">
-        <v>0</v>
-      </c>
-      <c r="O19" t="str">
-        <v/>
-      </c>
-      <c r="P19" t="str">
-        <v/>
-      </c>
-      <c r="Q19" t="str">
-        <v>0</v>
-      </c>
-      <c r="R19" t="str">
-        <v/>
-      </c>
-      <c r="S19" t="str">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>0</v>
       </c>
     </row>
@@ -1505,58 +1505,58 @@
       <c r="A20" t="str">
         <v>投资活动现金流入小计</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20">
         <v>11244181.3</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20">
         <v>21447122.95</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20">
         <v>5654435.69</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20">
         <v>106049995.49</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20">
         <v>125049057.14</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20">
         <v>759396234.64</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20">
         <v>354507568</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20">
         <v>215585426.84</v>
       </c>
-      <c r="J20" t="str">
+      <c r="J20">
         <v>75047126.51</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20">
         <v>27080397.26</v>
       </c>
-      <c r="L20" t="str">
+      <c r="L20">
         <v>23173100</v>
       </c>
-      <c r="M20" t="str">
-        <v/>
-      </c>
-      <c r="N20" t="str">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>5950</v>
       </c>
-      <c r="O20" t="str">
-        <v/>
-      </c>
-      <c r="P20" t="str">
-        <v/>
-      </c>
-      <c r="Q20" t="str">
-        <v>0</v>
-      </c>
-      <c r="R20" t="str">
-        <v/>
-      </c>
-      <c r="S20" t="str">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>0</v>
       </c>
     </row>
@@ -1564,58 +1564,58 @@
       <c r="A21" t="str">
         <v>购建固定资产、无形资产和其他长期资产支付的现金</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21">
         <v>1606750226.28</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21">
         <v>1125017192.45</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21">
         <v>1019178136.92</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21">
         <v>2061470481.32</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21">
         <v>4431065066.05</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21">
         <v>5405740026.23</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21">
         <v>4211900807.91</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21">
         <v>2184528163.11</v>
       </c>
-      <c r="J21" t="str">
+      <c r="J21">
         <v>1731913788.52</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21">
         <v>1356601530.09</v>
       </c>
-      <c r="L21" t="str">
+      <c r="L21">
         <v>1010735786.04</v>
       </c>
-      <c r="M21" t="str">
+      <c r="M21">
         <v>772456652.49</v>
       </c>
-      <c r="N21" t="str">
+      <c r="N21">
         <v>737075587.28</v>
       </c>
-      <c r="O21" t="str">
+      <c r="O21">
         <v>540843725.72</v>
       </c>
-      <c r="P21" t="str">
+      <c r="P21">
         <v>355190020.75</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="Q21">
         <v>334880557.62</v>
       </c>
-      <c r="R21" t="str">
+      <c r="R21">
         <v>467451921.25</v>
       </c>
-      <c r="S21" t="str">
+      <c r="S21">
         <v>331691548.18</v>
       </c>
     </row>
@@ -1623,58 +1623,58 @@
       <c r="A22" t="str">
         <v>投资支付的现金</v>
       </c>
-      <c r="B22" t="str">
-        <v/>
-      </c>
-      <c r="C22" t="str">
-        <v/>
-      </c>
-      <c r="D22" t="str">
-        <v/>
-      </c>
-      <c r="E22" t="str">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>25050000</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22">
         <v>15000000</v>
       </c>
-      <c r="G22" t="str">
-        <v>0</v>
-      </c>
-      <c r="H22" t="str">
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <v>0</v>
-      </c>
-      <c r="J22" t="str">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>50000000</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22">
         <v>10000000</v>
       </c>
-      <c r="L22" t="str">
+      <c r="L22">
         <v>5000000</v>
       </c>
-      <c r="M22" t="str">
+      <c r="M22">
         <v>17000000</v>
       </c>
-      <c r="N22" t="str">
+      <c r="N22">
         <v>41000000</v>
       </c>
-      <c r="O22" t="str">
-        <v/>
-      </c>
-      <c r="P22" t="str">
-        <v/>
-      </c>
-      <c r="Q22" t="str">
-        <v/>
-      </c>
-      <c r="R22" t="str">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>4000000</v>
       </c>
-      <c r="S22" t="str">
+      <c r="S22">
         <v>0</v>
       </c>
     </row>
@@ -1682,117 +1682,117 @@
       <c r="A23" t="str">
         <v>取得子公司及其他营业单位支付的现金净额</v>
       </c>
-      <c r="B23" t="str">
-        <v/>
-      </c>
-      <c r="C23" t="str">
-        <v/>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <v/>
-      </c>
-      <c r="I23" t="str">
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <v/>
-      </c>
-      <c r="K23" t="str">
-        <v/>
-      </c>
-      <c r="L23" t="str">
-        <v/>
-      </c>
-      <c r="M23" t="str">
-        <v/>
-      </c>
-      <c r="N23" t="str">
-        <v/>
-      </c>
-      <c r="O23" t="str">
-        <v/>
-      </c>
-      <c r="P23" t="str">
-        <v/>
-      </c>
-      <c r="Q23" t="str">
-        <v/>
-      </c>
-      <c r="R23" t="str">
-        <v/>
-      </c>
-      <c r="S23" t="str">
-        <v/>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
         <v>支付其他与投资活动有关的现金</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24">
         <v>33456659.58</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24">
         <v>17075145.1</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24">
         <v>88977102.97</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24">
         <v>68319778.76</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24">
         <v>259143571.28</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24">
         <v>692967608.36</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H24">
         <v>342083058.36</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24">
         <v>151475313.64</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J24">
         <v>56522892.71</v>
       </c>
-      <c r="K24" t="str">
-        <v/>
-      </c>
-      <c r="L24" t="str">
-        <v/>
-      </c>
-      <c r="M24" t="str">
-        <v/>
-      </c>
-      <c r="N24" t="str">
-        <v>0</v>
-      </c>
-      <c r="O24" t="str">
-        <v/>
-      </c>
-      <c r="P24" t="str">
-        <v/>
-      </c>
-      <c r="Q24" t="str">
-        <v>0</v>
-      </c>
-      <c r="R24" t="str">
-        <v/>
-      </c>
-      <c r="S24" t="str">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>0</v>
       </c>
     </row>
@@ -1800,58 +1800,58 @@
       <c r="A25" t="str">
         <v>投资活动现金流出小计</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25">
         <v>1640206885.86</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25">
         <v>1142092337.55</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25">
         <v>1108155239.89</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E25">
         <v>2154840260.08</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25">
         <v>4705208637.33</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G25">
         <v>6098707634.59</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H25">
         <v>4553983866.27</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25">
         <v>2336003476.75</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J25">
         <v>1838436681.23</v>
       </c>
-      <c r="K25" t="str">
+      <c r="K25">
         <v>1366601530.09</v>
       </c>
-      <c r="L25" t="str">
+      <c r="L25">
         <v>1015735786.04</v>
       </c>
-      <c r="M25" t="str">
+      <c r="M25">
         <v>789456652.49</v>
       </c>
-      <c r="N25" t="str">
+      <c r="N25">
         <v>778075587.28</v>
       </c>
-      <c r="O25" t="str">
+      <c r="O25">
         <v>540843725.72</v>
       </c>
-      <c r="P25" t="str">
+      <c r="P25">
         <v>355190020.75</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="Q25">
         <v>334880557.62</v>
       </c>
-      <c r="R25" t="str">
+      <c r="R25">
         <v>471451921.25</v>
       </c>
-      <c r="S25" t="str">
+      <c r="S25">
         <v>331691548.18</v>
       </c>
     </row>
@@ -1859,58 +1859,58 @@
       <c r="A26" t="str">
         <v>投资活动产生的现金流量净额</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26">
         <v>-1628962704.56</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26">
         <v>-1120645214.6</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26">
         <v>-1102500804.2</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26">
         <v>-2048790264.59</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26">
         <v>-4580159580.19</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G26">
         <v>-5339311399.95</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H26">
         <v>-4199476298.27</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26">
         <v>-2120418049.91</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J26">
         <v>-1763389554.72</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K26">
         <v>-1339521132.83</v>
       </c>
-      <c r="L26" t="str">
+      <c r="L26">
         <v>-992562686.04</v>
       </c>
-      <c r="M26" t="str">
+      <c r="M26">
         <v>-789456652.49</v>
       </c>
-      <c r="N26" t="str">
+      <c r="N26">
         <v>-778069637.28</v>
       </c>
-      <c r="O26" t="str">
+      <c r="O26">
         <v>-540843725.72</v>
       </c>
-      <c r="P26" t="str">
+      <c r="P26">
         <v>-355190020.75</v>
       </c>
-      <c r="Q26" t="str">
+      <c r="Q26">
         <v>-334880557.62</v>
       </c>
-      <c r="R26" t="str">
+      <c r="R26">
         <v>-471451921.25</v>
       </c>
-      <c r="S26" t="str">
+      <c r="S26">
         <v>-331691548.18</v>
       </c>
     </row>
@@ -1977,58 +1977,58 @@
       <c r="A28" t="str">
         <v>吸收投资收到的现金</v>
       </c>
-      <c r="B28" t="str">
-        <v/>
-      </c>
-      <c r="C28" t="str">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>6000000</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28">
         <v>16000000</v>
       </c>
-      <c r="E28" t="str">
-        <v/>
-      </c>
-      <c r="F28" t="str">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>34800000</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28">
         <v>6000000</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28">
         <v>392000000</v>
       </c>
-      <c r="I28" t="str">
-        <v>0</v>
-      </c>
-      <c r="J28" t="str">
-        <v>0</v>
-      </c>
-      <c r="K28" t="str">
-        <v/>
-      </c>
-      <c r="L28" t="str">
-        <v/>
-      </c>
-      <c r="M28" t="str">
-        <v/>
-      </c>
-      <c r="N28" t="str">
-        <v/>
-      </c>
-      <c r="O28" t="str">
-        <v/>
-      </c>
-      <c r="P28" t="str">
-        <v/>
-      </c>
-      <c r="Q28" t="str">
-        <v/>
-      </c>
-      <c r="R28" t="str">
-        <v>0</v>
-      </c>
-      <c r="S28" t="str">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>2016922206.52</v>
       </c>
     </row>
@@ -2036,117 +2036,117 @@
       <c r="A29" t="str">
         <v>其中：子公司吸收少数股东投资收到的现金</v>
       </c>
-      <c r="B29" t="str">
-        <v/>
-      </c>
-      <c r="C29" t="str">
-        <v/>
-      </c>
-      <c r="D29" t="str">
-        <v/>
-      </c>
-      <c r="E29" t="str">
-        <v/>
-      </c>
-      <c r="F29" t="str">
-        <v/>
-      </c>
-      <c r="G29" t="str">
-        <v/>
-      </c>
-      <c r="H29" t="str">
-        <v/>
-      </c>
-      <c r="I29" t="str">
-        <v/>
-      </c>
-      <c r="J29" t="str">
-        <v/>
-      </c>
-      <c r="K29" t="str">
-        <v/>
-      </c>
-      <c r="L29" t="str">
-        <v/>
-      </c>
-      <c r="M29" t="str">
-        <v/>
-      </c>
-      <c r="N29" t="str">
-        <v/>
-      </c>
-      <c r="O29" t="str">
-        <v/>
-      </c>
-      <c r="P29" t="str">
-        <v/>
-      </c>
-      <c r="Q29" t="str">
-        <v/>
-      </c>
-      <c r="R29" t="str">
-        <v/>
-      </c>
-      <c r="S29" t="str">
-        <v/>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
         <v>取得借款收到的现金</v>
       </c>
-      <c r="B30" t="str">
-        <v/>
-      </c>
-      <c r="C30" t="str">
-        <v/>
-      </c>
-      <c r="D30" t="str">
-        <v/>
-      </c>
-      <c r="E30" t="str">
-        <v/>
-      </c>
-      <c r="F30" t="str">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>67382607</v>
       </c>
-      <c r="G30" t="str">
-        <v/>
-      </c>
-      <c r="H30" t="str">
-        <v/>
-      </c>
-      <c r="I30" t="str">
-        <v/>
-      </c>
-      <c r="J30" t="str">
-        <v/>
-      </c>
-      <c r="K30" t="str">
-        <v/>
-      </c>
-      <c r="L30" t="str">
-        <v/>
-      </c>
-      <c r="M30" t="str">
-        <v/>
-      </c>
-      <c r="N30" t="str">
-        <v/>
-      </c>
-      <c r="O30" t="str">
-        <v/>
-      </c>
-      <c r="P30" t="str">
-        <v/>
-      </c>
-      <c r="Q30" t="str">
-        <v>0</v>
-      </c>
-      <c r="R30" t="str">
-        <v/>
-      </c>
-      <c r="S30" t="str">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>0</v>
       </c>
     </row>
@@ -2154,117 +2154,117 @@
       <c r="A31" t="str">
         <v>发行债券收到的现金</v>
       </c>
-      <c r="B31" t="str">
-        <v/>
-      </c>
-      <c r="C31" t="str">
-        <v/>
-      </c>
-      <c r="D31" t="str">
-        <v/>
-      </c>
-      <c r="E31" t="str">
-        <v/>
-      </c>
-      <c r="F31" t="str">
-        <v/>
-      </c>
-      <c r="G31" t="str">
-        <v/>
-      </c>
-      <c r="H31" t="str">
-        <v/>
-      </c>
-      <c r="I31" t="str">
-        <v/>
-      </c>
-      <c r="J31" t="str">
-        <v/>
-      </c>
-      <c r="K31" t="str">
-        <v/>
-      </c>
-      <c r="L31" t="str">
-        <v/>
-      </c>
-      <c r="M31" t="str">
-        <v/>
-      </c>
-      <c r="N31" t="str">
-        <v/>
-      </c>
-      <c r="O31" t="str">
-        <v/>
-      </c>
-      <c r="P31" t="str">
-        <v/>
-      </c>
-      <c r="Q31" t="str">
-        <v/>
-      </c>
-      <c r="R31" t="str">
-        <v/>
-      </c>
-      <c r="S31" t="str">
-        <v/>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
         <v>收到其他与筹资活动有关的现金</v>
       </c>
-      <c r="B32" t="str">
-        <v/>
-      </c>
-      <c r="C32" t="str">
-        <v/>
-      </c>
-      <c r="D32" t="str">
-        <v/>
-      </c>
-      <c r="E32" t="str">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>22000000</v>
       </c>
-      <c r="F32" t="str">
-        <v/>
-      </c>
-      <c r="G32" t="str">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>17474.78</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H32">
         <v>89497.15</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I32">
         <v>102972.37</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J32">
         <v>105801.61</v>
       </c>
-      <c r="K32" t="str">
+      <c r="K32">
         <v>158121.82</v>
       </c>
-      <c r="L32" t="str">
+      <c r="L32">
         <v>761176.07</v>
       </c>
-      <c r="M32" t="str">
+      <c r="M32">
         <v>1504621</v>
       </c>
-      <c r="N32" t="str">
+      <c r="N32">
         <v>4146323.1</v>
       </c>
-      <c r="O32" t="str">
+      <c r="O32">
         <v>32502077.9</v>
       </c>
-      <c r="P32" t="str">
-        <v/>
-      </c>
-      <c r="Q32" t="str">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>300000</v>
       </c>
-      <c r="R32" t="str">
-        <v/>
-      </c>
-      <c r="S32" t="str">
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>0</v>
       </c>
     </row>
@@ -2272,58 +2272,58 @@
       <c r="A33" t="str">
         <v>筹资活动现金流入小计</v>
       </c>
-      <c r="B33" t="str">
-        <v/>
-      </c>
-      <c r="C33" t="str">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>6000000</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33">
         <v>16000000</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E33">
         <v>22000000</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F33">
         <v>102182607</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G33">
         <v>6017474.78</v>
       </c>
-      <c r="H33" t="str">
+      <c r="H33">
         <v>392089497.15</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I33">
         <v>102972.37</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J33">
         <v>105801.61</v>
       </c>
-      <c r="K33" t="str">
+      <c r="K33">
         <v>158121.82</v>
       </c>
-      <c r="L33" t="str">
+      <c r="L33">
         <v>761176.07</v>
       </c>
-      <c r="M33" t="str">
+      <c r="M33">
         <v>1504621</v>
       </c>
-      <c r="N33" t="str">
+      <c r="N33">
         <v>4146323.1</v>
       </c>
-      <c r="O33" t="str">
+      <c r="O33">
         <v>32502077.9</v>
       </c>
-      <c r="P33" t="str">
-        <v/>
-      </c>
-      <c r="Q33" t="str">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>300000</v>
       </c>
-      <c r="R33" t="str">
-        <v/>
-      </c>
-      <c r="S33" t="str">
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>2016922206.52</v>
       </c>
     </row>
@@ -2331,58 +2331,58 @@
       <c r="A34" t="str">
         <v>偿还债务支付的现金</v>
       </c>
-      <c r="B34" t="str">
-        <v/>
-      </c>
-      <c r="C34" t="str">
-        <v/>
-      </c>
-      <c r="D34" t="str">
-        <v/>
-      </c>
-      <c r="E34" t="str">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>55917672</v>
       </c>
-      <c r="F34" t="str">
-        <v/>
-      </c>
-      <c r="G34" t="str">
-        <v/>
-      </c>
-      <c r="H34" t="str">
-        <v/>
-      </c>
-      <c r="I34" t="str">
-        <v/>
-      </c>
-      <c r="J34" t="str">
-        <v/>
-      </c>
-      <c r="K34" t="str">
-        <v/>
-      </c>
-      <c r="L34" t="str">
-        <v/>
-      </c>
-      <c r="M34" t="str">
-        <v/>
-      </c>
-      <c r="N34" t="str">
-        <v/>
-      </c>
-      <c r="O34" t="str">
-        <v/>
-      </c>
-      <c r="P34" t="str">
-        <v/>
-      </c>
-      <c r="Q34" t="str">
-        <v>0</v>
-      </c>
-      <c r="R34" t="str">
-        <v/>
-      </c>
-      <c r="S34" t="str">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>129000000</v>
       </c>
     </row>
@@ -2390,58 +2390,58 @@
       <c r="A35" t="str">
         <v>分配股利、利润或偿付利息支付的现金</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35">
         <v>16441093160.06</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35">
         <v>8905177880.8</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D35">
         <v>8350512252.23</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E35">
         <v>5554101966.61</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35">
         <v>5121609336.33</v>
       </c>
-      <c r="G35" t="str">
+      <c r="G35">
         <v>7391988549.25</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H35">
         <v>4306614120</v>
       </c>
-      <c r="I35" t="str">
+      <c r="I35">
         <v>2661953339.24</v>
       </c>
-      <c r="J35" t="str">
+      <c r="J35">
         <v>1292951032.41</v>
       </c>
-      <c r="K35" t="str">
+      <c r="K35">
         <v>1235143869.1</v>
       </c>
-      <c r="L35" t="str">
+      <c r="L35">
         <v>884671434.63</v>
       </c>
-      <c r="M35" t="str">
+      <c r="M35">
         <v>706866028.2</v>
       </c>
-      <c r="N35" t="str">
+      <c r="N35">
         <v>760139114.4</v>
       </c>
-      <c r="O35" t="str">
+      <c r="O35">
         <v>191703825.82</v>
       </c>
-      <c r="P35" t="str">
+      <c r="P35">
         <v>62314427.45</v>
       </c>
-      <c r="Q35" t="str">
+      <c r="Q35">
         <v>47385988.25</v>
       </c>
-      <c r="R35" t="str">
+      <c r="R35">
         <v>139259336.87</v>
       </c>
-      <c r="S35" t="str">
+      <c r="S35">
         <v>103060709.05</v>
       </c>
     </row>
@@ -2449,117 +2449,117 @@
       <c r="A36" t="str">
         <v>其中：子公司支付给少数股东的股利、利润</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36">
         <v>2624173549.23</v>
       </c>
-      <c r="C36" t="str">
-        <v/>
-      </c>
-      <c r="D36" t="str">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>532067286.55</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E36">
         <v>513009332.72</v>
       </c>
-      <c r="F36" t="str">
-        <v/>
-      </c>
-      <c r="G36" t="str">
-        <v/>
-      </c>
-      <c r="H36" t="str">
-        <v/>
-      </c>
-      <c r="I36" t="str">
-        <v/>
-      </c>
-      <c r="J36" t="str">
-        <v/>
-      </c>
-      <c r="K36" t="str">
-        <v/>
-      </c>
-      <c r="L36" t="str">
-        <v/>
-      </c>
-      <c r="M36" t="str">
-        <v/>
-      </c>
-      <c r="N36" t="str">
-        <v/>
-      </c>
-      <c r="O36" t="str">
-        <v/>
-      </c>
-      <c r="P36" t="str">
-        <v/>
-      </c>
-      <c r="Q36" t="str">
-        <v/>
-      </c>
-      <c r="R36" t="str">
-        <v/>
-      </c>
-      <c r="S36" t="str">
-        <v/>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
         <v>支付其他与筹资活动有关的现金</v>
       </c>
-      <c r="B37" t="str">
-        <v/>
-      </c>
-      <c r="C37" t="str">
-        <v/>
-      </c>
-      <c r="D37" t="str">
-        <v/>
-      </c>
-      <c r="E37" t="str">
-        <v/>
-      </c>
-      <c r="F37" t="str">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>22000000</v>
       </c>
-      <c r="G37" t="str">
-        <v>0</v>
-      </c>
-      <c r="H37" t="str">
-        <v/>
-      </c>
-      <c r="I37" t="str">
-        <v>0</v>
-      </c>
-      <c r="J37" t="str">
-        <v>0</v>
-      </c>
-      <c r="K37" t="str">
-        <v/>
-      </c>
-      <c r="L37" t="str">
-        <v/>
-      </c>
-      <c r="M37" t="str">
-        <v/>
-      </c>
-      <c r="N37" t="str">
-        <v>0</v>
-      </c>
-      <c r="O37" t="str">
-        <v/>
-      </c>
-      <c r="P37" t="str">
-        <v/>
-      </c>
-      <c r="Q37" t="str">
-        <v>0</v>
-      </c>
-      <c r="R37" t="str">
-        <v>0</v>
-      </c>
-      <c r="S37" t="str">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>0</v>
       </c>
     </row>
@@ -2567,58 +2567,58 @@
       <c r="A38" t="str">
         <v>筹资活动现金流出小计</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38">
         <v>16441093160.06</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38">
         <v>8905177880.8</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D38">
         <v>8350512252.23</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E38">
         <v>5610019638.61</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F38">
         <v>5143609336.33</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G38">
         <v>7391988549.25</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38">
         <v>4306614120</v>
       </c>
-      <c r="I38" t="str">
+      <c r="I38">
         <v>2661953339.24</v>
       </c>
-      <c r="J38" t="str">
+      <c r="J38">
         <v>1292951032.41</v>
       </c>
-      <c r="K38" t="str">
+      <c r="K38">
         <v>1235143869.1</v>
       </c>
-      <c r="L38" t="str">
+      <c r="L38">
         <v>884671434.63</v>
       </c>
-      <c r="M38" t="str">
+      <c r="M38">
         <v>706866028.2</v>
       </c>
-      <c r="N38" t="str">
+      <c r="N38">
         <v>760139114.4</v>
       </c>
-      <c r="O38" t="str">
+      <c r="O38">
         <v>191703825.82</v>
       </c>
-      <c r="P38" t="str">
+      <c r="P38">
         <v>62314427.45</v>
       </c>
-      <c r="Q38" t="str">
+      <c r="Q38">
         <v>47385988.25</v>
       </c>
-      <c r="R38" t="str">
+      <c r="R38">
         <v>139259336.87</v>
       </c>
-      <c r="S38" t="str">
+      <c r="S38">
         <v>232060709.05</v>
       </c>
     </row>
@@ -2626,58 +2626,58 @@
       <c r="A39" t="str">
         <v>筹资活动产生的现金流量净额</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39">
         <v>-16441093160.06</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39">
         <v>-8899177880.8</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D39">
         <v>-8334512252.23</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E39">
         <v>-5588019638.61</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39">
         <v>-5041426729.33</v>
       </c>
-      <c r="G39" t="str">
+      <c r="G39">
         <v>-7385971074.47</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H39">
         <v>-3914524622.85</v>
       </c>
-      <c r="I39" t="str">
+      <c r="I39">
         <v>-2661850366.87</v>
       </c>
-      <c r="J39" t="str">
+      <c r="J39">
         <v>-1292845230.8</v>
       </c>
-      <c r="K39" t="str">
+      <c r="K39">
         <v>-1234985747.28</v>
       </c>
-      <c r="L39" t="str">
+      <c r="L39">
         <v>-883910258.56</v>
       </c>
-      <c r="M39" t="str">
+      <c r="M39">
         <v>-705361407.2</v>
       </c>
-      <c r="N39" t="str">
+      <c r="N39">
         <v>-755992791.3</v>
       </c>
-      <c r="O39" t="str">
+      <c r="O39">
         <v>-159201747.92</v>
       </c>
-      <c r="P39" t="str">
+      <c r="P39">
         <v>-62314427.45</v>
       </c>
-      <c r="Q39" t="str">
+      <c r="Q39">
         <v>-47085988.25</v>
       </c>
-      <c r="R39" t="str">
+      <c r="R39">
         <v>-139259336.87</v>
       </c>
-      <c r="S39" t="str">
+      <c r="S39">
         <v>1784861497.47</v>
       </c>
     </row>
@@ -2685,58 +2685,58 @@
       <c r="A40" t="str">
         <v>四、汇率变动对现金的影响</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40">
         <v>29006.86</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40">
         <v>72948.86</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D40">
         <v>72317.8</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E40">
         <v>-16273531.71</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F40">
         <v>-5449166.99</v>
       </c>
-      <c r="G40" t="str">
-        <v/>
-      </c>
-      <c r="H40" t="str">
-        <v/>
-      </c>
-      <c r="I40" t="str">
-        <v/>
-      </c>
-      <c r="J40" t="str">
-        <v/>
-      </c>
-      <c r="K40" t="str">
-        <v/>
-      </c>
-      <c r="L40" t="str">
-        <v/>
-      </c>
-      <c r="M40" t="str">
-        <v/>
-      </c>
-      <c r="N40" t="str">
-        <v/>
-      </c>
-      <c r="O40" t="str">
-        <v/>
-      </c>
-      <c r="P40" t="str">
-        <v/>
-      </c>
-      <c r="Q40" t="str">
-        <v>0</v>
-      </c>
-      <c r="R40" t="str">
-        <v/>
-      </c>
-      <c r="S40" t="str">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
         <v>0</v>
       </c>
     </row>
@@ -2744,58 +2744,58 @@
       <c r="A41" t="str">
         <v>五、现金及现金等价物净增加额</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41">
         <v>23315207548.96</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41">
         <v>12133285937.59</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D41">
         <v>28014308908.42</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E41">
         <v>9783256706.81</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F41">
         <v>3005486960.09</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G41">
         <v>-70257612.5</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H41">
         <v>3807309688.13</v>
       </c>
-      <c r="I41" t="str">
+      <c r="I41">
         <v>5366296272.75</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J41">
         <v>3145241734.05</v>
       </c>
-      <c r="K41" t="str">
+      <c r="K41">
         <v>1649430264.08</v>
       </c>
-      <c r="L41" t="str">
+      <c r="L41">
         <v>3371015591.14</v>
       </c>
-      <c r="M41" t="str">
+      <c r="M41">
         <v>248485151.69</v>
       </c>
-      <c r="N41" t="str">
+      <c r="N41">
         <v>571108605.11</v>
       </c>
-      <c r="O41" t="str">
+      <c r="O41">
         <v>993662014.68</v>
       </c>
-      <c r="P41" t="str">
+      <c r="P41">
         <v>558280032</v>
       </c>
-      <c r="Q41" t="str">
+      <c r="Q41">
         <v>559739696.21</v>
       </c>
-      <c r="R41" t="str">
+      <c r="R41">
         <v>-176128879.46</v>
       </c>
-      <c r="S41" t="str">
+      <c r="S41">
         <v>1495452986.64</v>
       </c>
     </row>
@@ -2803,58 +2803,58 @@
       <c r="A42" t="str">
         <v>期初现金及现金等价物余额</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42">
         <v>74928080750.58</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42">
         <v>62794794812.99</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D42">
         <v>34780485904.57</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E42">
         <v>24997229197.76</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42">
         <v>21991742237.67</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G42">
         <v>22061999850.17</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H42">
         <v>18254690162.04</v>
       </c>
-      <c r="I42" t="str">
+      <c r="I42">
         <v>12888393889.29</v>
       </c>
-      <c r="J42" t="str">
+      <c r="J42">
         <v>9743152155.24</v>
       </c>
-      <c r="K42" t="str">
+      <c r="K42">
         <v>8093721891.16</v>
       </c>
-      <c r="L42" t="str">
+      <c r="L42">
         <v>4722706300.02</v>
       </c>
-      <c r="M42" t="str">
+      <c r="M42">
         <v>4474221148.33</v>
       </c>
-      <c r="N42" t="str">
+      <c r="N42">
         <v>3891989433.53</v>
       </c>
-      <c r="O42" t="str">
+      <c r="O42">
         <v>2898327418.85</v>
       </c>
-      <c r="P42" t="str">
+      <c r="P42">
         <v>2340047386.85</v>
       </c>
-      <c r="Q42" t="str">
+      <c r="Q42">
         <v>1780307690.64</v>
       </c>
-      <c r="R42" t="str">
+      <c r="R42">
         <v>1956436570.1</v>
       </c>
-      <c r="S42" t="str">
+      <c r="S42">
         <v>460983583.46</v>
       </c>
     </row>
@@ -2862,58 +2862,58 @@
       <c r="A43" t="str">
         <v>期末现金及现金等价物余额</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43">
         <v>98243288299.54</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43">
         <v>74928080750.58</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D43">
         <v>62794794812.99</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E43">
         <v>34780485904.57</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F43">
         <v>24997229197.76</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G43">
         <v>21991742237.67</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H43">
         <v>22061999850.17</v>
       </c>
-      <c r="I43" t="str">
+      <c r="I43">
         <v>18254690162.04</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J43">
         <v>12888393889.29</v>
       </c>
-      <c r="K43" t="str">
+      <c r="K43">
         <v>9743152155.24</v>
       </c>
-      <c r="L43" t="str">
+      <c r="L43">
         <v>8093721891.16</v>
       </c>
-      <c r="M43" t="str">
+      <c r="M43">
         <v>4722706300.02</v>
       </c>
-      <c r="N43" t="str">
+      <c r="N43">
         <v>4463098038.64</v>
       </c>
-      <c r="O43" t="str">
+      <c r="O43">
         <v>3891989433.53</v>
       </c>
-      <c r="P43" t="str">
+      <c r="P43">
         <v>2898327418.85</v>
       </c>
-      <c r="Q43" t="str">
+      <c r="Q43">
         <v>2340047386.85</v>
       </c>
-      <c r="R43" t="str">
+      <c r="R43">
         <v>1780307690.64</v>
       </c>
-      <c r="S43" t="str">
+      <c r="S43">
         <v>1956436570.1</v>
       </c>
     </row>
@@ -2980,58 +2980,58 @@
       <c r="A45" t="str">
         <v>净利润</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45">
         <v>37829617756.81</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45">
         <v>29006423236</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D45">
         <v>17930643109.88</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E45">
         <v>16454996625.22</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45">
         <v>16269371509.83</v>
       </c>
-      <c r="G45" t="str">
+      <c r="G45">
         <v>15964899881.05</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H45">
         <v>14008450702.17</v>
       </c>
-      <c r="I45" t="str">
+      <c r="I45">
         <v>9250323807.62</v>
       </c>
-      <c r="J45" t="str">
+      <c r="J45">
         <v>5339761496.97</v>
       </c>
-      <c r="K45" t="str">
+      <c r="K45">
         <v>4552888944</v>
       </c>
-      <c r="L45" t="str">
+      <c r="L45">
         <v>4000759343.11</v>
       </c>
-      <c r="M45" t="str">
+      <c r="M45">
         <v>2966052508.95</v>
       </c>
-      <c r="N45" t="str">
+      <c r="N45">
         <v>1574308238.46</v>
       </c>
-      <c r="O45" t="str">
+      <c r="O45">
         <v>1169122125.71</v>
       </c>
-      <c r="P45" t="str">
+      <c r="P45">
         <v>854172175.46</v>
       </c>
-      <c r="Q45" t="str">
+      <c r="Q45">
         <v>608753496.06</v>
       </c>
-      <c r="R45" t="str">
+      <c r="R45">
         <v>376798521.36</v>
       </c>
-      <c r="S45" t="str">
+      <c r="S45">
         <v>328290723.14</v>
       </c>
     </row>
@@ -3157,58 +3157,58 @@
       <c r="A48" t="str">
         <v>加：资产减值准备</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48">
         <v>1289685.01</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48">
         <v>-8053703.95</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D48">
         <v>12327496.22</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E48">
         <v>-540313.39</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F48">
         <v>432745.88</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G48">
         <v>-2004032.3</v>
       </c>
-      <c r="H48" t="str">
+      <c r="H48">
         <v>2979258.5</v>
       </c>
-      <c r="I48" t="str">
+      <c r="I48">
         <v>-2500650.57</v>
       </c>
-      <c r="J48" t="str">
+      <c r="J48">
         <v>-3066975.05</v>
       </c>
-      <c r="K48" t="str">
+      <c r="K48">
         <v>-300085.01</v>
       </c>
-      <c r="L48" t="str">
+      <c r="L48">
         <v>450078.22</v>
       </c>
-      <c r="M48" t="str">
+      <c r="M48">
         <v>-614738.65</v>
       </c>
-      <c r="N48" t="str">
-        <v/>
-      </c>
-      <c r="O48" t="str">
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
         <v>-1324018.35</v>
       </c>
-      <c r="P48" t="str">
+      <c r="P48">
         <v>761947.03</v>
       </c>
-      <c r="Q48" t="str">
+      <c r="Q48">
         <v>2052540.39</v>
       </c>
-      <c r="R48" t="str">
+      <c r="R48">
         <v>5977107.72</v>
       </c>
-      <c r="S48" t="str">
+      <c r="S48">
         <v>6692428.52</v>
       </c>
     </row>
@@ -3216,58 +3216,58 @@
       <c r="A49" t="str">
         <v>固定资产折旧、油气资产折耗、生产性生物资产折旧</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B49">
         <v>1084662728.58</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49">
         <v>1035052733.45</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D49">
         <v>842728072.04</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E49">
         <v>761458678.29</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49">
         <v>675349786.98</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G49">
         <v>520481867.72</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H49">
         <v>414952194.94</v>
       </c>
-      <c r="I49" t="str">
+      <c r="I49">
         <v>331356736.88</v>
       </c>
-      <c r="J49" t="str">
+      <c r="J49">
         <v>267815117.52</v>
       </c>
-      <c r="K49" t="str">
+      <c r="K49">
         <v>187387081.41</v>
       </c>
-      <c r="L49" t="str">
+      <c r="L49">
         <v>147042974.23</v>
       </c>
-      <c r="M49" t="str">
+      <c r="M49">
         <v>103823977.32</v>
       </c>
-      <c r="N49" t="str">
+      <c r="N49">
         <v>84717392.17</v>
       </c>
-      <c r="O49" t="str">
+      <c r="O49">
         <v>64659106.39</v>
       </c>
-      <c r="P49" t="str">
+      <c r="P49">
         <v>55088524.05</v>
       </c>
-      <c r="Q49" t="str">
+      <c r="Q49">
         <v>58391200.81</v>
       </c>
-      <c r="R49" t="str">
+      <c r="R49">
         <v>20409817.8</v>
       </c>
-      <c r="S49" t="str">
+      <c r="S49">
         <v>11587498.19</v>
       </c>
     </row>
@@ -3275,58 +3275,58 @@
       <c r="A50" t="str">
         <v>无形资产摊销</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50">
         <v>80431667.22</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50">
         <v>80522705.77</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D50">
         <v>80457895.99</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E50">
         <v>79883270.42</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F50">
         <v>77607523.2</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G50">
         <v>31617810.78</v>
       </c>
-      <c r="H50" t="str">
+      <c r="H50">
         <v>15994854.35</v>
       </c>
-      <c r="I50" t="str">
+      <c r="I50">
         <v>11855582.22</v>
       </c>
-      <c r="J50" t="str">
+      <c r="J50">
         <v>14719853.45</v>
       </c>
-      <c r="K50" t="str">
+      <c r="K50">
         <v>11552408.13</v>
       </c>
-      <c r="L50" t="str">
+      <c r="L50">
         <v>6995493.68</v>
       </c>
-      <c r="M50" t="str">
+      <c r="M50">
         <v>8419605.26</v>
       </c>
-      <c r="N50" t="str">
+      <c r="N50">
         <v>3228097.47</v>
       </c>
-      <c r="O50" t="str">
+      <c r="O50">
         <v>1721214.26</v>
       </c>
-      <c r="P50" t="str">
+      <c r="P50">
         <v>171205.04</v>
       </c>
-      <c r="Q50" t="str">
+      <c r="Q50">
         <v>170000.04</v>
       </c>
-      <c r="R50" t="str">
+      <c r="R50">
         <v>170000.04</v>
       </c>
-      <c r="S50" t="str">
+      <c r="S50">
         <v>676000.04</v>
       </c>
     </row>
@@ -3334,58 +3334,58 @@
       <c r="A51" t="str">
         <v>长期待摊费用摊销</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B51">
         <v>10331100.62</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51">
         <v>10259101.97</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D51">
         <v>11008704.17</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E51">
         <v>6804749.02</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F51">
         <v>3842650.48</v>
       </c>
-      <c r="G51" t="str">
+      <c r="G51">
         <v>4197830.59</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H51">
         <v>3854764.8</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51">
         <v>4896216.72</v>
       </c>
-      <c r="J51" t="str">
+      <c r="J51">
         <v>3034894.25</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K51">
         <v>8627818.88</v>
       </c>
-      <c r="L51" t="str">
+      <c r="L51">
         <v>10613073.47</v>
       </c>
-      <c r="M51" t="str">
+      <c r="M51">
         <v>65846168.6</v>
       </c>
-      <c r="N51" t="str">
+      <c r="N51">
         <v>8744492.69</v>
       </c>
-      <c r="O51" t="str">
+      <c r="O51">
         <v>12051388.76</v>
       </c>
-      <c r="P51" t="str">
+      <c r="P51">
         <v>11374067.69</v>
       </c>
-      <c r="Q51" t="str">
+      <c r="Q51">
         <v>5297418.04</v>
       </c>
-      <c r="R51" t="str">
+      <c r="R51">
         <v>-5629054.37</v>
       </c>
-      <c r="S51" t="str">
+      <c r="S51">
         <v>2083990</v>
       </c>
     </row>
@@ -3511,58 +3511,58 @@
       <c r="A54" t="str">
         <v>处置固定资产、无形资产和其他长期资产的损失</v>
       </c>
-      <c r="B54" t="str">
-        <v>0</v>
-      </c>
-      <c r="C54" t="str">
-        <v>0</v>
-      </c>
-      <c r="D54" t="str">
-        <v>0</v>
-      </c>
-      <c r="E54" t="str">
-        <v>0</v>
-      </c>
-      <c r="F54" t="str">
-        <v>0</v>
-      </c>
-      <c r="G54" t="str">
-        <v/>
-      </c>
-      <c r="H54" t="str">
-        <v/>
-      </c>
-      <c r="I54" t="str">
-        <v/>
-      </c>
-      <c r="J54" t="str">
-        <v/>
-      </c>
-      <c r="K54" t="str">
-        <v/>
-      </c>
-      <c r="L54" t="str">
-        <v/>
-      </c>
-      <c r="M54" t="str">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
         <v>900998.31</v>
       </c>
-      <c r="N54" t="str">
-        <v/>
-      </c>
-      <c r="O54" t="str">
-        <v/>
-      </c>
-      <c r="P54" t="str">
-        <v/>
-      </c>
-      <c r="Q54" t="str">
-        <v>0</v>
-      </c>
-      <c r="R54" t="str">
-        <v/>
-      </c>
-      <c r="S54" t="str">
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
         <v>0</v>
       </c>
     </row>
@@ -3570,58 +3570,58 @@
       <c r="A55" t="str">
         <v>固定资产报废损失</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55">
         <v>1808930.93</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55">
         <v>3291895.5</v>
       </c>
-      <c r="D55" t="str">
+      <c r="D55">
         <v>1869869.13</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E55">
         <v>-17419.86</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F55">
         <v>85119583.32</v>
       </c>
-      <c r="G55" t="str">
+      <c r="G55">
         <v>8997287.17</v>
       </c>
-      <c r="H55" t="str">
+      <c r="H55">
         <v>155718.82</v>
       </c>
-      <c r="I55" t="str">
+      <c r="I55">
         <v>-888534.94</v>
       </c>
-      <c r="J55" t="str">
+      <c r="J55">
         <v>617857.77</v>
       </c>
-      <c r="K55" t="str">
+      <c r="K55">
         <v>227122.97</v>
       </c>
-      <c r="L55" t="str">
+      <c r="L55">
         <v>3241808.24</v>
       </c>
-      <c r="M55" t="str">
+      <c r="M55">
         <v>3146711.19</v>
       </c>
-      <c r="N55" t="str">
-        <v/>
-      </c>
-      <c r="O55" t="str">
-        <v/>
-      </c>
-      <c r="P55" t="str">
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
         <v>210396.99</v>
       </c>
-      <c r="Q55" t="str">
-        <v>0</v>
-      </c>
-      <c r="R55" t="str">
-        <v/>
-      </c>
-      <c r="S55" t="str">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
         <v>602996.92</v>
       </c>
     </row>
@@ -3629,59 +3629,59 @@
       <c r="A56" t="str">
         <v>公允价值变动损失</v>
       </c>
-      <c r="B56" t="str">
-        <v>0</v>
-      </c>
-      <c r="C56" t="str">
-        <v>0</v>
-      </c>
-      <c r="D56" t="str">
-        <v>0</v>
-      </c>
-      <c r="E56" t="str">
-        <v>0</v>
-      </c>
-      <c r="F56" t="str">
-        <v>0</v>
-      </c>
-      <c r="G56" t="str">
-        <v/>
-      </c>
-      <c r="H56" t="str">
-        <v/>
-      </c>
-      <c r="I56" t="str">
-        <v/>
-      </c>
-      <c r="J56" t="str">
-        <v/>
-      </c>
-      <c r="K56" t="str">
-        <v/>
-      </c>
-      <c r="L56" t="str">
-        <v/>
-      </c>
-      <c r="M56" t="str">
-        <v/>
-      </c>
-      <c r="N56" t="str">
-        <v/>
-      </c>
-      <c r="O56" t="str">
-        <v/>
-      </c>
-      <c r="P56" t="str">
-        <v/>
-      </c>
-      <c r="Q56" t="str">
-        <v/>
-      </c>
-      <c r="R56" t="str">
-        <v/>
-      </c>
-      <c r="S56" t="str">
-        <v/>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3806,58 +3806,58 @@
       <c r="A59" t="str">
         <v>财务费用</v>
       </c>
-      <c r="B59" t="str">
-        <v>0</v>
-      </c>
-      <c r="C59" t="str">
-        <v>0</v>
-      </c>
-      <c r="D59" t="str">
-        <v>0</v>
-      </c>
-      <c r="E59" t="str">
-        <v>0</v>
-      </c>
-      <c r="F59" t="str">
-        <v>0</v>
-      </c>
-      <c r="G59" t="str">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
         <v>-17474.78</v>
       </c>
-      <c r="H59" t="str">
+      <c r="H59">
         <v>-89497.15</v>
       </c>
-      <c r="I59" t="str">
+      <c r="I59">
         <v>-102972.37</v>
       </c>
-      <c r="J59" t="str">
+      <c r="J59">
         <v>-105801.61</v>
       </c>
-      <c r="K59" t="str">
+      <c r="K59">
         <v>-158121.82</v>
       </c>
-      <c r="L59" t="str">
+      <c r="L59">
         <v>-761176.07</v>
       </c>
-      <c r="M59" t="str">
+      <c r="M59">
         <v>-2019007.08</v>
       </c>
-      <c r="N59" t="str">
+      <c r="N59">
         <v>-3977754.65</v>
       </c>
-      <c r="O59" t="str">
+      <c r="O59">
         <v>-32264593.95</v>
       </c>
-      <c r="P59" t="str">
+      <c r="P59">
         <v>-25348043.32</v>
       </c>
-      <c r="Q59" t="str">
+      <c r="Q59">
         <v>-16050225.99</v>
       </c>
-      <c r="R59" t="str">
+      <c r="R59">
         <v>-17318934.37</v>
       </c>
-      <c r="S59" t="str">
+      <c r="S59">
         <v>-5661113.76</v>
       </c>
     </row>
@@ -3865,58 +3865,58 @@
       <c r="A60" t="str">
         <v>投资损失</v>
       </c>
-      <c r="B60" t="str">
-        <v>0</v>
-      </c>
-      <c r="C60" t="str">
-        <v>0</v>
-      </c>
-      <c r="D60" t="str">
-        <v>0</v>
-      </c>
-      <c r="E60" t="str">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>-3869276.9</v>
       </c>
-      <c r="F60" t="str">
+      <c r="F60">
         <v>-3095265.75</v>
       </c>
-      <c r="G60" t="str">
+      <c r="G60">
         <v>-3010000</v>
       </c>
-      <c r="H60" t="str">
+      <c r="H60">
         <v>-3103250</v>
       </c>
-      <c r="I60" t="str">
+      <c r="I60">
         <v>-3383000</v>
       </c>
-      <c r="J60" t="str">
+      <c r="J60">
         <v>-469050</v>
       </c>
-      <c r="K60" t="str">
+      <c r="K60">
         <v>-1209447.26</v>
       </c>
-      <c r="L60" t="str">
+      <c r="L60">
         <v>-1322250</v>
       </c>
-      <c r="M60" t="str">
+      <c r="M60">
         <v>-1814950</v>
       </c>
-      <c r="N60" t="str">
+      <c r="N60">
         <v>-3012928.94</v>
       </c>
-      <c r="O60" t="str">
+      <c r="O60">
         <v>-427953.6</v>
       </c>
-      <c r="P60" t="str">
+      <c r="P60">
         <v>-315063.71</v>
       </c>
-      <c r="Q60" t="str">
-        <v>0</v>
-      </c>
-      <c r="R60" t="str">
-        <v/>
-      </c>
-      <c r="S60" t="str">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
         <v>0</v>
       </c>
     </row>
@@ -3924,58 +3924,58 @@
       <c r="A61" t="str">
         <v>递延所得税资产减少</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B61">
         <v>352502540.32</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C61">
         <v>343741758.91</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D61">
         <v>-590203046.54</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E61">
         <v>-333734968.43</v>
       </c>
-      <c r="F61" t="str">
+      <c r="F61">
         <v>3771418.94</v>
       </c>
-      <c r="G61" t="str">
+      <c r="G61">
         <v>-181715611.33</v>
       </c>
-      <c r="H61" t="str">
+      <c r="H61">
         <v>-141027962.79</v>
       </c>
-      <c r="I61" t="str">
+      <c r="I61">
         <v>-224191011.56</v>
       </c>
-      <c r="J61" t="str">
+      <c r="J61">
         <v>-53017136.83</v>
       </c>
-      <c r="K61" t="str">
+      <c r="K61">
         <v>-48739824.6</v>
       </c>
-      <c r="L61" t="str">
+      <c r="L61">
         <v>-123831417.11</v>
       </c>
-      <c r="M61" t="str">
+      <c r="M61">
         <v>117243937.53</v>
       </c>
-      <c r="N61" t="str">
-        <v/>
-      </c>
-      <c r="O61" t="str">
-        <v/>
-      </c>
-      <c r="P61" t="str">
-        <v/>
-      </c>
-      <c r="Q61" t="str">
-        <v>0</v>
-      </c>
-      <c r="R61" t="str">
-        <v/>
-      </c>
-      <c r="S61" t="str">
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
         <v>0</v>
       </c>
     </row>
@@ -3983,58 +3983,58 @@
       <c r="A62" t="str">
         <v>递延所得税负债增加</v>
       </c>
-      <c r="B62" t="str">
-        <v>0</v>
-      </c>
-      <c r="C62" t="str">
-        <v>0</v>
-      </c>
-      <c r="D62" t="str">
-        <v>0</v>
-      </c>
-      <c r="E62" t="str">
-        <v>0</v>
-      </c>
-      <c r="F62" t="str">
-        <v>0</v>
-      </c>
-      <c r="G62" t="str">
-        <v/>
-      </c>
-      <c r="H62" t="str">
-        <v/>
-      </c>
-      <c r="I62" t="str">
-        <v/>
-      </c>
-      <c r="J62" t="str">
-        <v>0</v>
-      </c>
-      <c r="K62" t="str">
-        <v>0</v>
-      </c>
-      <c r="L62" t="str">
-        <v>0</v>
-      </c>
-      <c r="M62" t="str">
-        <v>0</v>
-      </c>
-      <c r="N62" t="str">
-        <v/>
-      </c>
-      <c r="O62" t="str">
-        <v/>
-      </c>
-      <c r="P62" t="str">
-        <v/>
-      </c>
-      <c r="Q62" t="str">
-        <v/>
-      </c>
-      <c r="R62" t="str">
-        <v/>
-      </c>
-      <c r="S62" t="str">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
         <v>0</v>
       </c>
     </row>
@@ -4042,58 +4042,58 @@
       <c r="A63" t="str">
         <v>存货的减少</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B63">
         <v>-1449469465.76</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C63">
         <v>-1435229550.91</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D63">
         <v>-2608954802.85</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E63">
         <v>-3030932654.85</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F63">
         <v>-3145554128.82</v>
       </c>
-      <c r="G63" t="str">
+      <c r="G63">
         <v>-2171082645.61</v>
       </c>
-      <c r="H63" t="str">
+      <c r="H63">
         <v>-2478610040.56</v>
       </c>
-      <c r="I63" t="str">
+      <c r="I63">
         <v>-1612991469.44</v>
       </c>
-      <c r="J63" t="str">
+      <c r="J63">
         <v>-1381879643.06</v>
       </c>
-      <c r="K63" t="str">
+      <c r="K63">
         <v>-1077678627.03</v>
       </c>
-      <c r="L63" t="str">
+      <c r="L63">
         <v>-809748865.41</v>
       </c>
-      <c r="M63" t="str">
+      <c r="M63">
         <v>-323901731.4</v>
       </c>
-      <c r="N63" t="str">
+      <c r="N63">
         <v>-101199764.44</v>
       </c>
-      <c r="O63" t="str">
+      <c r="O63">
         <v>-166808430.13</v>
       </c>
-      <c r="P63" t="str">
+      <c r="P63">
         <v>-478734574.06</v>
       </c>
-      <c r="Q63" t="str">
+      <c r="Q63">
         <v>-138394032.53</v>
       </c>
-      <c r="R63" t="str">
+      <c r="R63">
         <v>-290243761.71</v>
       </c>
-      <c r="S63" t="str">
+      <c r="S63">
         <v>-274782350.81</v>
       </c>
     </row>
@@ -4101,58 +4101,58 @@
       <c r="A64" t="str">
         <v>经营性应收项目的减少</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B64">
         <v>525665014.45</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C64">
         <v>-458728523.99</v>
       </c>
-      <c r="D64" t="str">
+      <c r="D64">
         <v>7669650565.84</v>
       </c>
-      <c r="E64" t="str">
+      <c r="E64">
         <v>-6705177839.34</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64">
         <v>-1517982420.56</v>
       </c>
-      <c r="G64" t="str">
+      <c r="G64">
         <v>-63379598.19</v>
       </c>
-      <c r="H64" t="str">
+      <c r="H64">
         <v>-64889789.58</v>
       </c>
-      <c r="I64" t="str">
+      <c r="I64">
         <v>-148673263.2</v>
       </c>
-      <c r="J64" t="str">
+      <c r="J64">
         <v>231534141.13</v>
       </c>
-      <c r="K64" t="str">
+      <c r="K64">
         <v>-671596539.44</v>
       </c>
-      <c r="L64" t="str">
+      <c r="L64">
         <v>-94515474.36</v>
       </c>
-      <c r="M64" t="str">
+      <c r="M64">
         <v>71616599.29</v>
       </c>
-      <c r="N64" t="str">
+      <c r="N64">
         <v>-45784689.46</v>
       </c>
-      <c r="O64" t="str">
+      <c r="O64">
         <v>-86411335</v>
       </c>
-      <c r="P64" t="str">
+      <c r="P64">
         <v>-55960435.45</v>
       </c>
-      <c r="Q64" t="str">
+      <c r="Q64">
         <v>-65987645.46</v>
       </c>
-      <c r="R64" t="str">
+      <c r="R64">
         <v>-81069660.29</v>
       </c>
-      <c r="S64" t="str">
+      <c r="S64">
         <v>-57514907.57</v>
       </c>
     </row>
@@ -4160,58 +4160,58 @@
       <c r="A65" t="str">
         <v>经营性应付项目的增加</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B65">
         <v>2948394448.54</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C65">
         <v>-6424243568.62</v>
       </c>
-      <c r="D65" t="str">
+      <c r="D65">
         <v>14101721783.17</v>
       </c>
-      <c r="E65" t="str">
+      <c r="E65">
         <v>10207469291.54</v>
       </c>
-      <c r="F65" t="str">
+      <c r="F65">
         <v>183659033.1</v>
       </c>
-      <c r="G65" t="str">
+      <c r="G65">
         <v>-1453960453.18</v>
       </c>
-      <c r="H65" t="str">
+      <c r="H65">
         <v>162643655.75</v>
       </c>
-      <c r="I65" t="str">
+      <c r="I65">
         <v>2542863248.17</v>
       </c>
-      <c r="J65" t="str">
+      <c r="J65">
         <v>1782531765.03</v>
       </c>
-      <c r="K65" t="str">
+      <c r="K65">
         <v>1262936413.96</v>
       </c>
-      <c r="L65" t="str">
+      <c r="L65">
         <v>2108564947.74</v>
       </c>
-      <c r="M65" t="str">
+      <c r="M65">
         <v>-1265396867.94</v>
       </c>
-      <c r="N65" t="str">
+      <c r="N65">
         <v>587303605.69</v>
       </c>
-      <c r="O65" t="str">
+      <c r="O65">
         <v>739535163.92</v>
       </c>
-      <c r="P65" t="str">
+      <c r="P65">
         <v>611487337.72</v>
       </c>
-      <c r="Q65" t="str">
+      <c r="Q65">
         <v>486448732.68</v>
       </c>
-      <c r="R65" t="str">
+      <c r="R65">
         <v>382940470.95</v>
       </c>
-      <c r="S65" t="str">
+      <c r="S65">
         <v>20581850.37</v>
       </c>
     </row>
@@ -4337,58 +4337,58 @@
       <c r="A68" t="str">
         <v>其他</v>
       </c>
-      <c r="B68" t="str">
-        <v/>
-      </c>
-      <c r="C68" t="str">
-        <v/>
-      </c>
-      <c r="D68" t="str">
-        <v/>
-      </c>
-      <c r="E68" t="str">
-        <v/>
-      </c>
-      <c r="F68" t="str">
-        <v/>
-      </c>
-      <c r="G68" t="str">
-        <v>0</v>
-      </c>
-      <c r="H68" t="str">
-        <v/>
-      </c>
-      <c r="I68" t="str">
-        <v>0</v>
-      </c>
-      <c r="J68" t="str">
-        <v>0</v>
-      </c>
-      <c r="K68" t="str">
-        <v/>
-      </c>
-      <c r="L68" t="str">
-        <v/>
-      </c>
-      <c r="M68" t="str">
-        <v/>
-      </c>
-      <c r="N68" t="str">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
         <v>844344.7</v>
       </c>
-      <c r="O68" t="str">
+      <c r="O68">
         <v>-6145179.69</v>
       </c>
-      <c r="P68" t="str">
+      <c r="P68">
         <v>2876942.76</v>
       </c>
-      <c r="Q68" t="str">
+      <c r="Q68">
         <v>1024758.04</v>
       </c>
-      <c r="R68" t="str">
+      <c r="R68">
         <v>42547871.53</v>
       </c>
-      <c r="S68" t="str">
+      <c r="S68">
         <v>9725922.31</v>
       </c>
     </row>
@@ -4396,58 +4396,58 @@
       <c r="A69" t="str">
         <v>经营活动产生的现金流量净额2</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B69">
         <v>41385234406.72</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C69">
         <v>22153036084.13</v>
       </c>
-      <c r="D69" t="str">
+      <c r="D69">
         <v>37451249647.05</v>
       </c>
-      <c r="E69" t="str">
+      <c r="E69">
         <v>17436340141.72</v>
       </c>
-      <c r="F69" t="str">
+      <c r="F69">
         <v>12632522436.6</v>
       </c>
-      <c r="G69" t="str">
+      <c r="G69">
         <v>12655024861.92</v>
       </c>
-      <c r="H69" t="str">
+      <c r="H69">
         <v>11921310609.25</v>
       </c>
-      <c r="I69" t="str">
+      <c r="I69">
         <v>10148564689.53</v>
       </c>
-      <c r="J69" t="str">
+      <c r="J69">
         <v>6201476519.57</v>
       </c>
-      <c r="K69" t="str">
+      <c r="K69">
         <v>4223937144.19</v>
       </c>
-      <c r="L69" t="str">
+      <c r="L69">
         <v>5247488535.74</v>
       </c>
-      <c r="M69" t="str">
+      <c r="M69">
         <v>1743303211.38</v>
       </c>
-      <c r="N69" t="str">
+      <c r="N69">
         <v>2105171033.69</v>
       </c>
-      <c r="O69" t="str">
+      <c r="O69">
         <v>1693707488.32</v>
       </c>
-      <c r="P69" t="str">
+      <c r="P69">
         <v>975784480.2</v>
       </c>
-      <c r="Q69" t="str">
+      <c r="Q69">
         <v>941706242.08</v>
       </c>
-      <c r="R69" t="str">
+      <c r="R69">
         <v>434582378.66</v>
       </c>
-      <c r="S69" t="str">
+      <c r="S69">
         <v>42283037.35</v>
       </c>
     </row>
@@ -4455,58 +4455,58 @@
       <c r="A70" t="str">
         <v>债务转为资本</v>
       </c>
-      <c r="B70" t="str">
-        <v>0</v>
-      </c>
-      <c r="C70" t="str">
-        <v>0</v>
-      </c>
-      <c r="D70" t="str">
-        <v>0</v>
-      </c>
-      <c r="E70" t="str">
-        <v>0</v>
-      </c>
-      <c r="F70" t="str">
-        <v>0</v>
-      </c>
-      <c r="G70" t="str">
-        <v/>
-      </c>
-      <c r="H70" t="str">
-        <v/>
-      </c>
-      <c r="I70" t="str">
-        <v/>
-      </c>
-      <c r="J70" t="str">
-        <v/>
-      </c>
-      <c r="K70" t="str">
-        <v/>
-      </c>
-      <c r="L70" t="str">
-        <v/>
-      </c>
-      <c r="M70" t="str">
-        <v/>
-      </c>
-      <c r="N70" t="str">
-        <v/>
-      </c>
-      <c r="O70" t="str">
-        <v/>
-      </c>
-      <c r="P70" t="str">
-        <v/>
-      </c>
-      <c r="Q70" t="str">
-        <v/>
-      </c>
-      <c r="R70" t="str">
-        <v/>
-      </c>
-      <c r="S70" t="str">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
         <v>0</v>
       </c>
     </row>
@@ -4514,117 +4514,117 @@
       <c r="A71" t="str">
         <v>一年内到期的可转换公司债券</v>
       </c>
-      <c r="B71" t="str">
-        <v>0</v>
-      </c>
-      <c r="C71" t="str">
-        <v>0</v>
-      </c>
-      <c r="D71" t="str">
-        <v>0</v>
-      </c>
-      <c r="E71" t="str">
-        <v>0</v>
-      </c>
-      <c r="F71" t="str">
-        <v>0</v>
-      </c>
-      <c r="G71" t="str">
-        <v/>
-      </c>
-      <c r="H71" t="str">
-        <v/>
-      </c>
-      <c r="I71" t="str">
-        <v/>
-      </c>
-      <c r="J71" t="str">
-        <v/>
-      </c>
-      <c r="K71" t="str">
-        <v/>
-      </c>
-      <c r="L71" t="str">
-        <v/>
-      </c>
-      <c r="M71" t="str">
-        <v/>
-      </c>
-      <c r="N71" t="str">
-        <v/>
-      </c>
-      <c r="O71" t="str">
-        <v/>
-      </c>
-      <c r="P71" t="str">
-        <v/>
-      </c>
-      <c r="Q71" t="str">
-        <v/>
-      </c>
-      <c r="R71" t="str">
-        <v/>
-      </c>
-      <c r="S71" t="str">
-        <v/>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
         <v>融资租入固定资产</v>
       </c>
-      <c r="B72" t="str">
-        <v>0</v>
-      </c>
-      <c r="C72" t="str">
-        <v>0</v>
-      </c>
-      <c r="D72" t="str">
-        <v>0</v>
-      </c>
-      <c r="E72" t="str">
-        <v>0</v>
-      </c>
-      <c r="F72" t="str">
-        <v>0</v>
-      </c>
-      <c r="G72" t="str">
-        <v/>
-      </c>
-      <c r="H72" t="str">
-        <v/>
-      </c>
-      <c r="I72" t="str">
-        <v/>
-      </c>
-      <c r="J72" t="str">
-        <v/>
-      </c>
-      <c r="K72" t="str">
-        <v/>
-      </c>
-      <c r="L72" t="str">
-        <v/>
-      </c>
-      <c r="M72" t="str">
-        <v/>
-      </c>
-      <c r="N72" t="str">
-        <v/>
-      </c>
-      <c r="O72" t="str">
-        <v>0</v>
-      </c>
-      <c r="P72" t="str">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="str">
-        <v>0</v>
-      </c>
-      <c r="R72" t="str">
-        <v/>
-      </c>
-      <c r="S72" t="str">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
         <v>0</v>
       </c>
     </row>
@@ -4632,58 +4632,58 @@
       <c r="A73" t="str">
         <v>现金的期末余额</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B73">
         <v>98243288299.54</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C73">
         <v>74928080750.58</v>
       </c>
-      <c r="D73" t="str">
+      <c r="D73">
         <v>62794794812.99</v>
       </c>
-      <c r="E73" t="str">
+      <c r="E73">
         <v>34780485904.57</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F73">
         <v>24997229197.76</v>
       </c>
-      <c r="G73" t="str">
+      <c r="G73">
         <v>21991742237.67</v>
       </c>
-      <c r="H73" t="str">
+      <c r="H73">
         <v>22061999850.17</v>
       </c>
-      <c r="I73" t="str">
+      <c r="I73">
         <v>18254690162.04</v>
       </c>
-      <c r="J73" t="str">
+      <c r="J73">
         <v>12888393889.29</v>
       </c>
-      <c r="K73" t="str">
+      <c r="K73">
         <v>9743152155.24</v>
       </c>
-      <c r="L73" t="str">
+      <c r="L73">
         <v>8093721891.16</v>
       </c>
-      <c r="M73" t="str">
+      <c r="M73">
         <v>4722706300.02</v>
       </c>
-      <c r="N73" t="str">
+      <c r="N73">
         <v>4463098038.64</v>
       </c>
-      <c r="O73" t="str">
+      <c r="O73">
         <v>3891989433.53</v>
       </c>
-      <c r="P73" t="str">
+      <c r="P73">
         <v>2898327418.85</v>
       </c>
-      <c r="Q73" t="str">
+      <c r="Q73">
         <v>2340047386.85</v>
       </c>
-      <c r="R73" t="str">
+      <c r="R73">
         <v>1780307690.64</v>
       </c>
-      <c r="S73" t="str">
+      <c r="S73">
         <v>1956436570.1</v>
       </c>
     </row>
@@ -4691,58 +4691,58 @@
       <c r="A74" t="str">
         <v>减：现金的期初余额</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B74">
         <v>74928080750.58</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C74">
         <v>62794794812.99</v>
       </c>
-      <c r="D74" t="str">
+      <c r="D74">
         <v>34780485904.57</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E74">
         <v>24997229197.76</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F74">
         <v>21991742237.67</v>
       </c>
-      <c r="G74" t="str">
+      <c r="G74">
         <v>22061999850.17</v>
       </c>
-      <c r="H74" t="str">
+      <c r="H74">
         <v>18254690162.04</v>
       </c>
-      <c r="I74" t="str">
+      <c r="I74">
         <v>12888393889.29</v>
       </c>
-      <c r="J74" t="str">
+      <c r="J74">
         <v>9743152155.24</v>
       </c>
-      <c r="K74" t="str">
+      <c r="K74">
         <v>8093721891.16</v>
       </c>
-      <c r="L74" t="str">
+      <c r="L74">
         <v>4722706300.02</v>
       </c>
-      <c r="M74" t="str">
+      <c r="M74">
         <v>4474221148.33</v>
       </c>
-      <c r="N74" t="str">
+      <c r="N74">
         <v>3891989433.53</v>
       </c>
-      <c r="O74" t="str">
+      <c r="O74">
         <v>2898327418.85</v>
       </c>
-      <c r="P74" t="str">
+      <c r="P74">
         <v>2340047386.85</v>
       </c>
-      <c r="Q74" t="str">
+      <c r="Q74">
         <v>1780307690.64</v>
       </c>
-      <c r="R74" t="str">
+      <c r="R74">
         <v>1956436570.1</v>
       </c>
-      <c r="S74" t="str">
+      <c r="S74">
         <v>460983583.46</v>
       </c>
     </row>
@@ -4750,58 +4750,58 @@
       <c r="A75" t="str">
         <v>加：现金等价物的期末余额</v>
       </c>
-      <c r="B75" t="str">
-        <v>0</v>
-      </c>
-      <c r="C75" t="str">
-        <v>0</v>
-      </c>
-      <c r="D75" t="str">
-        <v>0</v>
-      </c>
-      <c r="E75" t="str">
-        <v>0</v>
-      </c>
-      <c r="F75" t="str">
-        <v>0</v>
-      </c>
-      <c r="G75" t="str">
-        <v/>
-      </c>
-      <c r="H75" t="str">
-        <v/>
-      </c>
-      <c r="I75" t="str">
-        <v/>
-      </c>
-      <c r="J75" t="str">
-        <v/>
-      </c>
-      <c r="K75" t="str">
-        <v/>
-      </c>
-      <c r="L75" t="str">
-        <v/>
-      </c>
-      <c r="M75" t="str">
-        <v/>
-      </c>
-      <c r="N75" t="str">
-        <v/>
-      </c>
-      <c r="O75" t="str">
-        <v/>
-      </c>
-      <c r="P75" t="str">
-        <v/>
-      </c>
-      <c r="Q75" t="str">
-        <v>0</v>
-      </c>
-      <c r="R75" t="str">
-        <v/>
-      </c>
-      <c r="S75" t="str">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
         <v>0</v>
       </c>
     </row>
@@ -4809,58 +4809,58 @@
       <c r="A76" t="str">
         <v>减：现金等价物的期初余额</v>
       </c>
-      <c r="B76" t="str">
-        <v>0</v>
-      </c>
-      <c r="C76" t="str">
-        <v>0</v>
-      </c>
-      <c r="D76" t="str">
-        <v>0</v>
-      </c>
-      <c r="E76" t="str">
-        <v>0</v>
-      </c>
-      <c r="F76" t="str">
-        <v>0</v>
-      </c>
-      <c r="G76" t="str">
-        <v/>
-      </c>
-      <c r="H76" t="str">
-        <v/>
-      </c>
-      <c r="I76" t="str">
-        <v/>
-      </c>
-      <c r="J76" t="str">
-        <v/>
-      </c>
-      <c r="K76" t="str">
-        <v/>
-      </c>
-      <c r="L76" t="str">
-        <v/>
-      </c>
-      <c r="M76" t="str">
-        <v/>
-      </c>
-      <c r="N76" t="str">
-        <v/>
-      </c>
-      <c r="O76" t="str">
-        <v/>
-      </c>
-      <c r="P76" t="str">
-        <v/>
-      </c>
-      <c r="Q76" t="str">
-        <v>0</v>
-      </c>
-      <c r="R76" t="str">
-        <v/>
-      </c>
-      <c r="S76" t="str">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
         <v>0</v>
       </c>
     </row>
@@ -4868,58 +4868,58 @@
       <c r="A77" t="str">
         <v>现金及现金等价物净增加额2</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B77">
         <v>23315207548.96</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C77">
         <v>12133285937.59</v>
       </c>
-      <c r="D77" t="str">
+      <c r="D77">
         <v>28014308908.42</v>
       </c>
-      <c r="E77" t="str">
+      <c r="E77">
         <v>9783256706.81</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F77">
         <v>3005486960.09</v>
       </c>
-      <c r="G77" t="str">
+      <c r="G77">
         <v>-70257612.5</v>
       </c>
-      <c r="H77" t="str">
+      <c r="H77">
         <v>3807309688.13</v>
       </c>
-      <c r="I77" t="str">
+      <c r="I77">
         <v>5366296272.75</v>
       </c>
-      <c r="J77" t="str">
+      <c r="J77">
         <v>3145241734.05</v>
       </c>
-      <c r="K77" t="str">
+      <c r="K77">
         <v>1649430264.08</v>
       </c>
-      <c r="L77" t="str">
+      <c r="L77">
         <v>3371015591.14</v>
       </c>
-      <c r="M77" t="str">
+      <c r="M77">
         <v>248485151.69</v>
       </c>
-      <c r="N77" t="str">
+      <c r="N77">
         <v>571108605.11</v>
       </c>
-      <c r="O77" t="str">
+      <c r="O77">
         <v>993662014.68</v>
       </c>
-      <c r="P77" t="str">
+      <c r="P77">
         <v>558280032</v>
       </c>
-      <c r="Q77" t="str">
+      <c r="Q77">
         <v>559739696.21</v>
       </c>
-      <c r="R77" t="str">
+      <c r="R77">
         <v>-176128879.46</v>
       </c>
-      <c r="S77" t="str">
+      <c r="S77">
         <v>1495452986.64</v>
       </c>
     </row>
